--- a/documentacao/backlog.xlsx
+++ b/documentacao/backlog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leticia_vanelli\Desktop\prog2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leticia_vanelli\Desktop\prog2\formula1_novo\documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="61">
   <si>
     <t>identificar as configurações de desempenho do jogo - Atualização - requisito não funcional</t>
   </si>
@@ -197,6 +197,18 @@
   </si>
   <si>
     <t>Inicialização do projeto</t>
+  </si>
+  <si>
+    <t>index.html</t>
+  </si>
+  <si>
+    <t>style.css(front)</t>
+  </si>
+  <si>
+    <t>f1_main.js</t>
+  </si>
+  <si>
+    <t>f1_class.js</t>
   </si>
 </sst>
 </file>
@@ -752,10 +764,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E27"/>
+  <dimension ref="B1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -912,9 +924,7 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
@@ -1011,6 +1021,46 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
